--- a/docs/_static/benchmarks_files/OV-2023.1-system-info-detailed.xlsx
+++ b/docs/_static/benchmarks_files/OV-2023.1-system-info-detailed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/michael_f_hansen_intel_com/Documents/Documents/NCS/IoTG-Benchmarking/OV_release_by_release/OV-2023.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33991ABE-F904-4D5A-954F-F8AA03D7DB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FDA09F9-B907-4876-B8BE-6A24D3F955A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="390" windowWidth="26775" windowHeight="14865" xr2:uid="{18F91E22-A039-4F42-831F-FBB737BCB2A3}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{6A20D654-1DD5-47F1-BB8A-9DDB92EA9048}"/>
   </bookViews>
   <sheets>
     <sheet name="sysinfo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="378">
   <si>
     <t>Intel® Core™ i3-8100</t>
   </si>
@@ -870,12 +870,33 @@
     <t>CPU0_DIMM_B0</t>
   </si>
   <si>
+    <t>Ubuntu 20.04.6 LTS</t>
+  </si>
+  <si>
+    <t>Ubuntu 20.04.5 LTS</t>
+  </si>
+  <si>
+    <t>Ubuntu 20.04.4 LTS</t>
+  </si>
+  <si>
     <t>6.2.0-31-generic</t>
   </si>
   <si>
     <t>Software</t>
   </si>
   <si>
+    <t>5.150-83-generic</t>
+  </si>
+  <si>
+    <t>5.15.47+prerelease6469.7</t>
+  </si>
+  <si>
+    <t>5.4.0-144-generic</t>
+  </si>
+  <si>
+    <t>5.4.0-107-generic</t>
+  </si>
+  <si>
     <t>GCC</t>
   </si>
   <si>
@@ -906,6 +927,9 @@
     <t>CPU1_DIMM_C1</t>
   </si>
   <si>
+    <t>gcc (Ubuntu 9.4.0-1ubuntu1~20.04.1) 9.4.0</t>
+  </si>
+  <si>
     <t>Controller0-ChannelB-DIMM0</t>
   </si>
   <si>
@@ -1017,6 +1041,9 @@
     <t>5.3.0-24-generic</t>
   </si>
   <si>
+    <t>5.4.0-150-generic</t>
+  </si>
+  <si>
     <t>CPU1_DIMM_E0</t>
   </si>
   <si>
@@ -1135,6 +1162,12 @@
   </si>
   <si>
     <t>SE5C620.86B.02.01.0011.032620200659</t>
+  </si>
+  <si>
+    <t>5.4.0-139-generic</t>
+  </si>
+  <si>
+    <t>5.4.0-155-generic</t>
   </si>
   <si>
     <t>SE5C620.86B.01.01.0007.2210270543</t>
@@ -2229,12 +2262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBD3131-99C2-4A03-A6B8-69C0C1B0794A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208FA71C-A29F-4BCF-BE4D-7B1FC86D8957}">
   <dimension ref="A1:EQ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC37" sqref="AC37"/>
+    <sheetView tabSelected="1" topLeftCell="EG1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="EQ36" sqref="EQ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -11039,7 +11072,7 @@
       </c>
       <c r="DV35" s="23"/>
       <c r="DW35" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="DY35" s="40"/>
       <c r="DZ35" s="22" t="s">
@@ -11047,7 +11080,7 @@
       </c>
       <c r="EA35" s="23"/>
       <c r="EB35" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="ED35" s="80"/>
       <c r="EE35" s="22" t="s">
@@ -11063,7 +11096,7 @@
       </c>
       <c r="EK35" s="23"/>
       <c r="EL35" s="14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="EN35" s="40"/>
       <c r="EO35" s="22" t="s">
@@ -11071,7 +11104,7 @@
       </c>
       <c r="EP35" s="23"/>
       <c r="EQ35" s="14" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:147" ht="15.75" thickBot="1">
@@ -11146,7 +11179,7 @@
       </c>
       <c r="AQ36" s="23"/>
       <c r="AR36" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AT36" s="51"/>
       <c r="AU36" s="22" t="s">
@@ -11162,7 +11195,7 @@
       </c>
       <c r="BB36" s="23"/>
       <c r="BC36" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BD36" s="99"/>
       <c r="BE36" s="96"/>
@@ -11171,7 +11204,7 @@
       </c>
       <c r="BG36" s="23"/>
       <c r="BH36" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BI36" s="95"/>
       <c r="BJ36" s="38"/>
@@ -11223,7 +11256,7 @@
         <v>183</v>
       </c>
       <c r="CN36" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CO36" s="6"/>
       <c r="CP36" s="6"/>
@@ -11283,7 +11316,7 @@
       </c>
       <c r="DV36" s="23"/>
       <c r="DW36" s="14" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="DY36" s="50"/>
       <c r="DZ36" s="22" t="s">
@@ -11291,7 +11324,7 @@
       </c>
       <c r="EA36" s="23"/>
       <c r="EB36" s="14" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="ED36" s="80"/>
       <c r="EE36" s="22" t="s">
@@ -11307,7 +11340,7 @@
       </c>
       <c r="EK36" s="23"/>
       <c r="EL36" s="14" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="EN36" s="50"/>
       <c r="EO36" s="22" t="s">
@@ -11315,7 +11348,7 @@
       </c>
       <c r="EP36" s="23"/>
       <c r="EQ36" s="14" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:147" ht="15.75" thickBot="1">
@@ -11383,7 +11416,7 @@
         <v>112</v>
       </c>
       <c r="AO37" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AP37" s="6"/>
       <c r="AQ37" s="6"/>
@@ -11397,14 +11430,14 @@
         <v>9876543210</v>
       </c>
       <c r="AZ37" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BA37" s="101"/>
       <c r="BB37" s="101"/>
       <c r="BC37" s="102"/>
       <c r="BD37" s="16"/>
       <c r="BE37" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BF37" s="101"/>
       <c r="BG37" s="101"/>
@@ -11459,10 +11492,10 @@
         <v>180</v>
       </c>
       <c r="CN37" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="CO37" s="103" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="CP37" s="104"/>
       <c r="CQ37" s="105"/>
@@ -11516,13 +11549,13 @@
         <v>219</v>
       </c>
       <c r="DT37" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DU37" s="101"/>
       <c r="DV37" s="101"/>
       <c r="DW37" s="102"/>
       <c r="DY37" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DZ37" s="101"/>
       <c r="EA37" s="101"/>
@@ -11536,13 +11569,13 @@
         <v>222</v>
       </c>
       <c r="EI37" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="EJ37" s="101"/>
       <c r="EK37" s="101"/>
       <c r="EL37" s="102"/>
       <c r="EN37" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="EO37" s="101"/>
       <c r="EP37" s="101"/>
@@ -11555,7 +11588,7 @@
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="14" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="38"/>
@@ -11572,7 +11605,7 @@
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="14" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P38" s="38"/>
       <c r="Q38" s="22" t="s">
@@ -11596,7 +11629,7 @@
       </c>
       <c r="AB38" s="23"/>
       <c r="AC38" s="14" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AE38" s="55"/>
       <c r="AF38" s="22" t="s">
@@ -11617,10 +11650,10 @@
         <v>263</v>
       </c>
       <c r="AO38" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AP38" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AQ38" s="107"/>
       <c r="AR38" s="108"/>
@@ -11630,22 +11663,22 @@
       </c>
       <c r="AV38" s="23"/>
       <c r="AW38" s="14" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AZ38" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="BA38" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BB38" s="107"/>
       <c r="BC38" s="108"/>
       <c r="BD38" s="109"/>
       <c r="BE38" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="BF38" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BG38" s="107"/>
       <c r="BH38" s="108"/>
@@ -11697,10 +11730,10 @@
       <c r="CK38" s="28"/>
       <c r="CL38" s="82"/>
       <c r="CN38" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="CO38" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="CP38" s="104"/>
       <c r="CQ38" s="105"/>
@@ -11723,7 +11756,7 @@
         <v>213</v>
       </c>
       <c r="DB38" s="14" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="DD38" s="51"/>
       <c r="DE38" s="30" t="s">
@@ -11737,35 +11770,35 @@
         <v>213</v>
       </c>
       <c r="DJ38" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="DL38" s="38"/>
       <c r="DM38" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN38" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="DP38" s="38"/>
       <c r="DQ38" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR38" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="DT38" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="DU38" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="DV38" s="107"/>
       <c r="DW38" s="108"/>
       <c r="DY38" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="DZ38" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="EA38" s="107"/>
       <c r="EB38" s="108"/>
@@ -11775,21 +11808,21 @@
       </c>
       <c r="EF38" s="23"/>
       <c r="EG38" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="EI38" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="EI38" s="85" t="s">
-        <v>281</v>
-      </c>
       <c r="EJ38" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="EK38" s="107"/>
       <c r="EL38" s="108"/>
       <c r="EN38" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="EO38" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="EP38" s="107"/>
       <c r="EQ38" s="108"/>
@@ -11860,13 +11893,13 @@
       </c>
       <c r="AL39" s="63"/>
       <c r="AM39" s="14" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AO39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AP39" s="106" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AQ39" s="107"/>
       <c r="AR39" s="108"/>
@@ -11879,19 +11912,19 @@
         <v>1</v>
       </c>
       <c r="AZ39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BA39" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="BB39" s="107"/>
       <c r="BC39" s="108"/>
       <c r="BD39" s="99"/>
       <c r="BE39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="BF39" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="BG39" s="107"/>
       <c r="BH39" s="108"/>
@@ -11945,7 +11978,7 @@
         <v>204</v>
       </c>
       <c r="CN39" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="CO39" s="106">
         <v>2022.3</v>
@@ -12002,18 +12035,18 @@
         <v>3</v>
       </c>
       <c r="DT39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DU39" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="DV39" s="107"/>
       <c r="DW39" s="108"/>
       <c r="DY39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DZ39" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="EA39" s="107"/>
       <c r="EB39" s="108"/>
@@ -12023,21 +12056,21 @@
       </c>
       <c r="EF39" s="72"/>
       <c r="EG39" s="14" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="EI39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="EJ39" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="EK39" s="107"/>
       <c r="EL39" s="108"/>
       <c r="EN39" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="EO39" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="EP39" s="107"/>
       <c r="EQ39" s="108"/>
@@ -12098,7 +12131,7 @@
       </c>
       <c r="AG40" s="23"/>
       <c r="AH40" s="110" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="62" t="s">
@@ -12109,7 +12142,7 @@
         <v>44459</v>
       </c>
       <c r="AO40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AP40" s="111">
         <v>2023.1</v>
@@ -12125,7 +12158,7 @@
         <v>170</v>
       </c>
       <c r="AZ40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="BA40" s="111">
         <v>2023.1</v>
@@ -12134,7 +12167,7 @@
       <c r="BC40" s="113"/>
       <c r="BD40" s="109"/>
       <c r="BE40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="BF40" s="111">
         <v>2023.1</v>
@@ -12244,7 +12277,7 @@
         <v>177</v>
       </c>
       <c r="DT40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="DU40" s="111">
         <v>2023.1</v>
@@ -12252,7 +12285,7 @@
       <c r="DV40" s="112"/>
       <c r="DW40" s="113"/>
       <c r="DY40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="DZ40" s="111">
         <v>2023.1</v>
@@ -12268,7 +12301,7 @@
         <v>178</v>
       </c>
       <c r="EI40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="EJ40" s="111">
         <v>2023.1</v>
@@ -12276,7 +12309,7 @@
       <c r="EK40" s="112"/>
       <c r="EL40" s="113"/>
       <c r="EN40" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="EO40" s="111">
         <v>2023.1</v>
@@ -12365,19 +12398,19 @@
         <v>181</v>
       </c>
       <c r="AZ41" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="BA41" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BB41" s="107"/>
       <c r="BC41" s="108"/>
       <c r="BD41" s="109"/>
       <c r="BE41" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="BF41" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BG41" s="107"/>
       <c r="BH41" s="108"/>
@@ -12428,13 +12461,13 @@
       </c>
       <c r="CK41" s="28"/>
       <c r="CL41" s="20" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="CN41" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CO41" s="103" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="CP41" s="115"/>
       <c r="CQ41" s="116"/>
@@ -12488,18 +12521,18 @@
         <v>180</v>
       </c>
       <c r="DT41" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="DU41" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DV41" s="107"/>
       <c r="DW41" s="108"/>
       <c r="DY41" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="DZ41" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EA41" s="107"/>
       <c r="EB41" s="108"/>
@@ -12512,18 +12545,18 @@
         <v>180</v>
       </c>
       <c r="EI41" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="EJ41" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EK41" s="107"/>
       <c r="EL41" s="108"/>
       <c r="EN41" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="EO41" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EP41" s="107"/>
       <c r="EQ41" s="108"/>
@@ -12591,13 +12624,13 @@
       </c>
       <c r="AL42" s="23"/>
       <c r="AM42" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AO42" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AP42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AQ42" s="107"/>
       <c r="AR42" s="108"/>
@@ -12610,19 +12643,19 @@
         <v>191</v>
       </c>
       <c r="AZ42" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="BA42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BB42" s="107"/>
       <c r="BC42" s="108"/>
       <c r="BD42" s="109"/>
       <c r="BE42" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="BF42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BG42" s="107"/>
       <c r="BH42" s="108"/>
@@ -12670,10 +12703,10 @@
       <c r="CI42" s="77"/>
       <c r="CJ42" s="75"/>
       <c r="CN42" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="CO42" s="103" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="CP42" s="115"/>
       <c r="CQ42" s="116"/>
@@ -12703,7 +12736,7 @@
         <v>213</v>
       </c>
       <c r="DF42" s="14" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="DH42" s="38"/>
       <c r="DI42" s="30" t="s">
@@ -12727,18 +12760,18 @@
         <v>193</v>
       </c>
       <c r="DT42" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="DU42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DV42" s="107"/>
       <c r="DW42" s="108"/>
       <c r="DY42" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="DZ42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EA42" s="107"/>
       <c r="EB42" s="108"/>
@@ -12751,18 +12784,18 @@
         <v>197</v>
       </c>
       <c r="EI42" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="EJ42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EK42" s="107"/>
       <c r="EL42" s="108"/>
       <c r="EN42" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="EO42" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EP42" s="107"/>
       <c r="EQ42" s="108"/>
@@ -12823,19 +12856,19 @@
       </c>
       <c r="AG43" s="23"/>
       <c r="AH43" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="7"/>
       <c r="AO43" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AP43" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AQ43" s="107"/>
       <c r="AR43" s="108"/>
@@ -12848,7 +12881,7 @@
         <v>202</v>
       </c>
       <c r="AZ43" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="BA43" s="103">
         <v>14</v>
@@ -12857,7 +12890,7 @@
       <c r="BC43" s="105"/>
       <c r="BD43" s="109"/>
       <c r="BE43" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="BF43" s="103">
         <v>24</v>
@@ -12914,10 +12947,10 @@
         <v>3</v>
       </c>
       <c r="CN43" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="CO43" s="103" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="CP43" s="104"/>
       <c r="CQ43" s="105"/>
@@ -12971,7 +13004,7 @@
         <v>205</v>
       </c>
       <c r="DT43" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="DU43" s="103">
         <v>1</v>
@@ -12979,7 +13012,7 @@
       <c r="DV43" s="104"/>
       <c r="DW43" s="105"/>
       <c r="DY43" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="DZ43" s="103">
         <v>1</v>
@@ -12995,7 +13028,7 @@
         <v>203</v>
       </c>
       <c r="EI43" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="EJ43" s="103">
         <v>1</v>
@@ -13003,7 +13036,7 @@
       <c r="EK43" s="104"/>
       <c r="EL43" s="105"/>
       <c r="EN43" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="EO43" s="103">
         <v>1</v>
@@ -13062,21 +13095,21 @@
         <v>167</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="7"/>
       <c r="AJ44" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AK44" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AL44" s="107"/>
       <c r="AM44" s="108"/>
       <c r="AO44" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AP44" s="103">
         <v>4</v>
@@ -13092,18 +13125,18 @@
         <v>9876543210</v>
       </c>
       <c r="AZ44" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="BA44" s="103" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="BB44" s="104"/>
       <c r="BC44" s="105"/>
       <c r="BE44" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="BF44" s="103" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="BG44" s="104"/>
       <c r="BH44" s="105"/>
@@ -13230,7 +13263,7 @@
       </c>
       <c r="H45" s="63"/>
       <c r="I45" s="14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K45" s="55"/>
       <c r="L45" s="22" t="s">
@@ -13265,26 +13298,26 @@
         <v>167</v>
       </c>
       <c r="AE45" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AF45" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AG45" s="107"/>
       <c r="AH45" s="108"/>
       <c r="AJ45" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AK45" s="106" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AL45" s="107"/>
       <c r="AM45" s="108"/>
       <c r="AO45" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AP45" s="103" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AQ45" s="104"/>
       <c r="AR45" s="105"/>
@@ -13294,7 +13327,7 @@
       </c>
       <c r="AV45" s="23"/>
       <c r="AW45" s="14" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="BJ45" s="55"/>
       <c r="BK45" s="62" t="s">
@@ -13302,7 +13335,7 @@
       </c>
       <c r="BL45" s="63"/>
       <c r="BM45" s="14" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="BO45" s="55"/>
       <c r="BP45" s="22" t="s">
@@ -13318,7 +13351,7 @@
       </c>
       <c r="BV45" s="63"/>
       <c r="BW45" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY45" s="38"/>
       <c r="BZ45" s="62" t="s">
@@ -13326,7 +13359,7 @@
       </c>
       <c r="CA45" s="63"/>
       <c r="CB45" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CD45" s="38"/>
       <c r="CE45" s="62" t="s">
@@ -13334,7 +13367,7 @@
       </c>
       <c r="CF45" s="63"/>
       <c r="CG45" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CI45" s="77"/>
       <c r="CJ45" s="27" t="s">
@@ -13363,7 +13396,7 @@
         <v>213</v>
       </c>
       <c r="DB45" s="14" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="DD45" s="51"/>
       <c r="DE45" s="30" t="s">
@@ -13377,21 +13410,21 @@
         <v>213</v>
       </c>
       <c r="DJ45" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DL45" s="38"/>
       <c r="DM45" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN45" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="DP45" s="38"/>
       <c r="DQ45" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR45" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="ED45" s="89"/>
       <c r="EE45" s="22" t="s">
@@ -13399,7 +13432,7 @@
       </c>
       <c r="EF45" s="23"/>
       <c r="EG45" s="14" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:147" ht="15.75" thickBot="1">
@@ -13450,7 +13483,7 @@
       </c>
       <c r="W46" s="63"/>
       <c r="X46" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Z46" s="61" t="s">
         <v>230</v>
@@ -13463,15 +13496,15 @@
         <v>0</v>
       </c>
       <c r="AE46" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AF46" s="106" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AG46" s="107"/>
       <c r="AH46" s="108"/>
       <c r="AJ46" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AK46" s="111">
         <v>2023.1</v>
@@ -13607,7 +13640,7 @@
       </c>
       <c r="C47" s="63"/>
       <c r="D47" s="14" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="38"/>
@@ -13632,7 +13665,7 @@
       </c>
       <c r="R47" s="63"/>
       <c r="S47" s="14" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="U47" s="38"/>
       <c r="V47" s="62" t="s">
@@ -13640,7 +13673,7 @@
       </c>
       <c r="W47" s="63"/>
       <c r="X47" s="14" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Z47" s="38"/>
       <c r="AA47" s="62" t="s">
@@ -13648,10 +13681,10 @@
       </c>
       <c r="AB47" s="63"/>
       <c r="AC47" s="14" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="AE47" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AF47" s="111">
         <v>2023.1</v>
@@ -13668,7 +13701,7 @@
       </c>
       <c r="AV47" s="23"/>
       <c r="AW47" s="14" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="BJ47" s="38"/>
       <c r="BK47" s="62" t="s">
@@ -13676,7 +13709,7 @@
       </c>
       <c r="BL47" s="63"/>
       <c r="BM47" s="14" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="BO47" s="38"/>
       <c r="BP47" s="62" t="s">
@@ -13684,7 +13717,7 @@
       </c>
       <c r="BQ47" s="63"/>
       <c r="BR47" s="14" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="BT47" s="38"/>
       <c r="BU47" s="62" t="s">
@@ -13833,10 +13866,10 @@
       <c r="AG48" s="107"/>
       <c r="AH48" s="108"/>
       <c r="AJ48" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AK48" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AL48" s="107"/>
       <c r="AM48" s="108"/>
@@ -13998,7 +14031,7 @@
       </c>
       <c r="W49" s="63"/>
       <c r="X49" s="14" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Z49" s="38"/>
       <c r="AA49" s="62" t="s">
@@ -14009,18 +14042,18 @@
         <v>232</v>
       </c>
       <c r="AE49" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AF49" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AG49" s="107"/>
       <c r="AH49" s="108"/>
       <c r="AJ49" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AK49" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AL49" s="107"/>
       <c r="AM49" s="108"/>
@@ -14106,7 +14139,7 @@
         <v>213</v>
       </c>
       <c r="DF49" s="14" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="DH49" s="38"/>
       <c r="DI49" s="30" t="s">
@@ -14135,7 +14168,7 @@
       </c>
       <c r="EF49" s="23"/>
       <c r="EG49" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:137" ht="15.75" thickBot="1">
@@ -14177,7 +14210,7 @@
       </c>
       <c r="W50" s="63"/>
       <c r="X50" s="14" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z50" s="38"/>
       <c r="AA50" s="62" t="s">
@@ -14188,15 +14221,15 @@
         <v>248</v>
       </c>
       <c r="AE50" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AF50" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AG50" s="107"/>
       <c r="AH50" s="108"/>
       <c r="AJ50" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AK50" s="103">
         <v>4</v>
@@ -14308,7 +14341,7 @@
       </c>
       <c r="EF50" s="23"/>
       <c r="EG50" s="14" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:137" ht="15.75" thickBot="1">
@@ -14346,7 +14379,7 @@
         <v>244</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
@@ -14360,7 +14393,7 @@
         <v>244</v>
       </c>
       <c r="AE51" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AF51" s="103">
         <v>4</v>
@@ -14368,10 +14401,10 @@
       <c r="AG51" s="104"/>
       <c r="AH51" s="105"/>
       <c r="AJ51" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AK51" s="103" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AL51" s="104"/>
       <c r="AM51" s="105"/>
@@ -14481,7 +14514,7 @@
         <v>219</v>
       </c>
       <c r="ED51" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="EE51" s="101"/>
       <c r="EF51" s="101"/>
@@ -14522,10 +14555,10 @@
         <v>112</v>
       </c>
       <c r="U52" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="V52" s="103" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="W52" s="104"/>
       <c r="X52" s="105"/>
@@ -14538,10 +14571,10 @@
         <v>112</v>
       </c>
       <c r="AE52" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AF52" s="118" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AG52" s="119"/>
       <c r="AH52" s="120"/>
@@ -14575,7 +14608,7 @@
       </c>
       <c r="BV52" s="63"/>
       <c r="BW52" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="BY52" s="38"/>
       <c r="BZ52" s="62" t="s">
@@ -14583,7 +14616,7 @@
       </c>
       <c r="CA52" s="63"/>
       <c r="CB52" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="CD52" s="38"/>
       <c r="CE52" s="62" t="s">
@@ -14591,7 +14624,7 @@
       </c>
       <c r="CF52" s="63"/>
       <c r="CG52" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="CI52" s="77"/>
       <c r="CJ52" s="27" t="s">
@@ -14606,21 +14639,21 @@
         <v>213</v>
       </c>
       <c r="CU52" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CW52" s="38"/>
       <c r="CX52" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CY52" s="14" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CZ52" s="38"/>
       <c r="DA52" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DB52" s="14" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="DD52" s="51"/>
       <c r="DE52" s="30" t="s">
@@ -14634,27 +14667,27 @@
         <v>213</v>
       </c>
       <c r="DJ52" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="DL52" s="38"/>
       <c r="DM52" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN52" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="DP52" s="38"/>
       <c r="DQ52" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR52" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="ED52" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="EE52" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="EF52" s="107"/>
       <c r="EG52" s="108"/>
@@ -14668,7 +14701,7 @@
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="29" t="s">
@@ -14679,7 +14712,7 @@
       </c>
       <c r="H53" s="63"/>
       <c r="I53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K53" s="57" t="s">
         <v>256</v>
@@ -14689,7 +14722,7 @@
       </c>
       <c r="M53" s="23"/>
       <c r="N53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P53" s="61" t="s">
         <v>256</v>
@@ -14699,13 +14732,13 @@
       </c>
       <c r="R53" s="63"/>
       <c r="S53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="U53" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="V53" s="103" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="W53" s="104"/>
       <c r="X53" s="105"/>
@@ -14717,7 +14750,7 @@
       </c>
       <c r="AB53" s="63"/>
       <c r="AC53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="AT53" s="57" t="s">
         <v>256</v>
@@ -14737,7 +14770,7 @@
       </c>
       <c r="BL53" s="63"/>
       <c r="BM53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="BO53" s="61" t="s">
         <v>256</v>
@@ -14747,7 +14780,7 @@
       </c>
       <c r="BQ53" s="63"/>
       <c r="BR53" s="14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="BT53" s="38"/>
       <c r="BU53" s="67" t="s">
@@ -14831,10 +14864,10 @@
         <v>5</v>
       </c>
       <c r="ED53" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="EE53" s="106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="EF53" s="107"/>
       <c r="EG53" s="108"/>
@@ -14846,7 +14879,7 @@
       </c>
       <c r="C54" s="63"/>
       <c r="D54" s="14" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="38"/>
@@ -14871,10 +14904,10 @@
       </c>
       <c r="R54" s="63"/>
       <c r="S54" s="58" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="U54" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="V54" s="106">
         <v>2022.3</v>
@@ -14887,7 +14920,7 @@
       </c>
       <c r="AB54" s="63"/>
       <c r="AC54" s="14" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AT54" s="32"/>
       <c r="AU54" s="22" t="s">
@@ -14895,7 +14928,7 @@
       </c>
       <c r="AV54" s="23"/>
       <c r="AW54" s="110" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="BJ54" s="38"/>
       <c r="BK54" s="62" t="s">
@@ -14903,7 +14936,7 @@
       </c>
       <c r="BL54" s="63"/>
       <c r="BM54" s="121" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="BO54" s="38"/>
       <c r="BP54" s="62" t="s">
@@ -14993,7 +15026,7 @@
         <v>177</v>
       </c>
       <c r="ED54" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="EE54" s="111">
         <v>2023.1</v>
@@ -15153,10 +15186,10 @@
         <v>180</v>
       </c>
       <c r="ED55" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="EE55" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EF55" s="107"/>
       <c r="EG55" s="108"/>
@@ -15204,10 +15237,10 @@
         <v>273</v>
       </c>
       <c r="U56" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="V56" s="106" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="W56" s="107"/>
       <c r="X56" s="108"/>
@@ -15309,7 +15342,7 @@
         <v>213</v>
       </c>
       <c r="DF56" s="14" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="DH56" s="38"/>
       <c r="DI56" s="30" t="s">
@@ -15333,10 +15366,10 @@
         <v>193</v>
       </c>
       <c r="ED56" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="EE56" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="EF56" s="107"/>
       <c r="EG56" s="108"/>
@@ -15348,7 +15381,7 @@
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="96"/>
@@ -15357,7 +15390,7 @@
       </c>
       <c r="H57" s="63"/>
       <c r="I57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K57" s="97"/>
       <c r="L57" s="22" t="s">
@@ -15365,7 +15398,7 @@
       </c>
       <c r="M57" s="23"/>
       <c r="N57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P57" s="96"/>
       <c r="Q57" s="62" t="s">
@@ -15373,13 +15406,13 @@
       </c>
       <c r="R57" s="63"/>
       <c r="S57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="U57" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="V57" s="106" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="W57" s="107"/>
       <c r="X57" s="108"/>
@@ -15389,7 +15422,7 @@
       </c>
       <c r="AB57" s="63"/>
       <c r="AC57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AT57" s="47"/>
       <c r="AU57" s="22" t="s">
@@ -15397,7 +15430,7 @@
       </c>
       <c r="AV57" s="23"/>
       <c r="AW57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BJ57" s="96"/>
       <c r="BK57" s="62" t="s">
@@ -15405,7 +15438,7 @@
       </c>
       <c r="BL57" s="63"/>
       <c r="BM57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BO57" s="96"/>
       <c r="BP57" s="62" t="s">
@@ -15413,7 +15446,7 @@
       </c>
       <c r="BQ57" s="63"/>
       <c r="BR57" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BT57" s="38"/>
       <c r="BU57" s="62" t="s">
@@ -15440,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="CI57" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CJ57" s="101"/>
       <c r="CK57" s="101"/>
@@ -15495,7 +15528,7 @@
         <v>205</v>
       </c>
       <c r="ED57" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="EE57" s="103">
         <v>1</v>
@@ -15505,32 +15538,32 @@
     </row>
     <row r="58" spans="1:137" ht="15.75" thickBot="1">
       <c r="A58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
       <c r="E58" s="25"/>
       <c r="F58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="7"/>
       <c r="K58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="7"/>
       <c r="P58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="7"/>
       <c r="U58" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="V58" s="103">
         <v>4</v>
@@ -15538,25 +15571,25 @@
       <c r="W58" s="104"/>
       <c r="X58" s="105"/>
       <c r="Z58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="7"/>
       <c r="AT58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
       <c r="AW58" s="7"/>
       <c r="BJ58" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BK58" s="6"/>
       <c r="BL58" s="6"/>
       <c r="BM58" s="7"/>
       <c r="BO58" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BP58" s="101"/>
       <c r="BQ58" s="101"/>
@@ -15586,10 +15619,10 @@
         <v>167</v>
       </c>
       <c r="CI58" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="CJ58" s="103" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="CK58" s="104"/>
       <c r="CL58" s="105"/>
@@ -15645,67 +15678,67 @@
     </row>
     <row r="59" spans="1:137" ht="15.75" thickBot="1">
       <c r="A59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C59" s="107"/>
       <c r="D59" s="108"/>
       <c r="E59" s="25"/>
       <c r="F59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H59" s="107"/>
       <c r="I59" s="108"/>
       <c r="K59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M59" s="107"/>
       <c r="N59" s="108"/>
       <c r="P59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="R59" s="107"/>
       <c r="S59" s="108"/>
       <c r="Z59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AA59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AB59" s="107"/>
       <c r="AC59" s="108"/>
       <c r="AT59" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AU59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AV59" s="107"/>
       <c r="AW59" s="108"/>
       <c r="BJ59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="BK59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BL59" s="107"/>
       <c r="BM59" s="108"/>
       <c r="BO59" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="BP59" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BQ59" s="107"/>
       <c r="BR59" s="108"/>
@@ -15734,10 +15767,10 @@
         <v>167</v>
       </c>
       <c r="CI59" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="CJ59" s="104" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="CK59" s="104"/>
       <c r="CL59" s="105"/>
@@ -15760,7 +15793,7 @@
         <v>213</v>
       </c>
       <c r="DB59" s="14" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="DD59" s="51"/>
       <c r="DE59" s="30" t="s">
@@ -15774,85 +15807,85 @@
         <v>213</v>
       </c>
       <c r="DJ59" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="DL59" s="38"/>
       <c r="DM59" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN59" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="DP59" s="38"/>
       <c r="DQ59" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR59" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:137" ht="15.75" thickBot="1">
       <c r="A60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B60" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D60" s="105"/>
       <c r="E60" s="90"/>
       <c r="F60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G60" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H60" s="104"/>
       <c r="I60" s="105"/>
       <c r="K60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L60" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M60" s="104"/>
       <c r="N60" s="105"/>
       <c r="P60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q60" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="R60" s="104"/>
       <c r="S60" s="105"/>
       <c r="Z60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AA60" s="106" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AB60" s="107"/>
       <c r="AC60" s="108"/>
       <c r="AT60" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AU60" s="106" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AV60" s="107"/>
       <c r="AW60" s="108"/>
       <c r="BJ60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="BK60" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="BL60" s="104"/>
       <c r="BM60" s="105"/>
       <c r="BO60" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="BP60" s="103" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="BQ60" s="104"/>
       <c r="BR60" s="105"/>
@@ -15881,7 +15914,7 @@
         <v>6</v>
       </c>
       <c r="CI60" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="CJ60" s="106">
         <v>2022.3</v>
@@ -15940,7 +15973,7 @@
     </row>
     <row r="61" spans="1:137" ht="15.75" thickBot="1">
       <c r="A61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B61" s="111">
         <v>2023.1</v>
@@ -15949,7 +15982,7 @@
       <c r="D61" s="113"/>
       <c r="E61" s="90"/>
       <c r="F61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G61" s="111">
         <v>2023.1</v>
@@ -15957,7 +15990,7 @@
       <c r="H61" s="112"/>
       <c r="I61" s="113"/>
       <c r="K61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="L61" s="111">
         <v>2023.1</v>
@@ -15965,7 +15998,7 @@
       <c r="M61" s="112"/>
       <c r="N61" s="113"/>
       <c r="P61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="111">
         <v>2023.1</v>
@@ -15973,7 +16006,7 @@
       <c r="R61" s="112"/>
       <c r="S61" s="113"/>
       <c r="Z61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AA61" s="111">
         <v>2023.1</v>
@@ -15981,7 +16014,7 @@
       <c r="AB61" s="112"/>
       <c r="AC61" s="113"/>
       <c r="AT61" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AU61" s="111">
         <v>2023.1</v>
@@ -15989,7 +16022,7 @@
       <c r="AV61" s="112"/>
       <c r="AW61" s="113"/>
       <c r="BJ61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="BK61" s="111">
         <v>2023.1</v>
@@ -15997,7 +16030,7 @@
       <c r="BL61" s="112"/>
       <c r="BM61" s="113"/>
       <c r="BO61" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="BP61" s="111">
         <v>2023.1</v>
@@ -16141,10 +16174,10 @@
         <v>180</v>
       </c>
       <c r="CI62" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CJ62" s="103" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="CK62" s="115"/>
       <c r="CL62" s="116"/>
@@ -16200,67 +16233,67 @@
     </row>
     <row r="63" spans="1:137" ht="15.75" thickBot="1">
       <c r="A63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C63" s="107"/>
       <c r="D63" s="108"/>
       <c r="E63" s="90"/>
       <c r="F63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H63" s="107"/>
       <c r="I63" s="108"/>
       <c r="K63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M63" s="107"/>
       <c r="N63" s="108"/>
       <c r="P63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="R63" s="107"/>
       <c r="S63" s="108"/>
       <c r="Z63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AA63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AB63" s="107"/>
       <c r="AC63" s="108"/>
       <c r="AT63" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AU63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AV63" s="107"/>
       <c r="AW63" s="108"/>
       <c r="BJ63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="BK63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BL63" s="107"/>
       <c r="BM63" s="108"/>
       <c r="BO63" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="BP63" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BQ63" s="107"/>
       <c r="BR63" s="108"/>
@@ -16289,10 +16322,10 @@
         <v>194</v>
       </c>
       <c r="CI63" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="CJ63" s="103" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="CK63" s="115"/>
       <c r="CL63" s="116"/>
@@ -16322,7 +16355,7 @@
         <v>213</v>
       </c>
       <c r="DF63" s="14" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="DH63" s="38"/>
       <c r="DI63" s="30" t="s">
@@ -16348,67 +16381,67 @@
     </row>
     <row r="64" spans="1:137" ht="15.75" thickBot="1">
       <c r="A64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C64" s="107"/>
       <c r="D64" s="108"/>
       <c r="E64" s="90"/>
       <c r="F64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H64" s="107"/>
       <c r="I64" s="108"/>
       <c r="K64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M64" s="107"/>
       <c r="N64" s="108"/>
       <c r="P64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="R64" s="107"/>
       <c r="S64" s="108"/>
       <c r="Z64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="AA64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AB64" s="107"/>
       <c r="AC64" s="108"/>
       <c r="AT64" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AU64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AV64" s="107"/>
       <c r="AW64" s="108"/>
       <c r="BJ64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="BK64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BL64" s="107"/>
       <c r="BM64" s="108"/>
       <c r="BO64" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="BP64" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BQ64" s="107"/>
       <c r="BR64" s="108"/>
@@ -16437,10 +16470,10 @@
         <v>32768</v>
       </c>
       <c r="CI64" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="CJ64" s="103" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="CK64" s="104"/>
       <c r="CL64" s="105"/>
@@ -16496,7 +16529,7 @@
     </row>
     <row r="65" spans="1:122" ht="15.75" thickBot="1">
       <c r="A65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B65" s="103">
         <v>4</v>
@@ -16505,7 +16538,7 @@
       <c r="D65" s="105"/>
       <c r="E65" s="90"/>
       <c r="F65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G65" s="103">
         <v>6</v>
@@ -16513,7 +16546,7 @@
       <c r="H65" s="104"/>
       <c r="I65" s="105"/>
       <c r="K65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L65" s="103">
         <v>6</v>
@@ -16521,7 +16554,7 @@
       <c r="M65" s="104"/>
       <c r="N65" s="105"/>
       <c r="P65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q65" s="103">
         <v>6</v>
@@ -16529,7 +16562,7 @@
       <c r="R65" s="104"/>
       <c r="S65" s="105"/>
       <c r="Z65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="AA65" s="103">
         <v>16</v>
@@ -16537,7 +16570,7 @@
       <c r="AB65" s="104"/>
       <c r="AC65" s="105"/>
       <c r="AT65" s="85" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AU65" s="103">
         <v>4</v>
@@ -16545,7 +16578,7 @@
       <c r="AV65" s="104"/>
       <c r="AW65" s="105"/>
       <c r="BJ65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="BK65" s="103">
         <v>4</v>
@@ -16553,7 +16586,7 @@
       <c r="BL65" s="104"/>
       <c r="BM65" s="105"/>
       <c r="BO65" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="BP65" s="103">
         <v>10</v>
@@ -16639,10 +16672,10 @@
       <c r="G66" s="122"/>
       <c r="H66" s="122"/>
       <c r="AT66" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AU66" s="118" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AV66" s="119"/>
       <c r="AW66" s="120"/>
@@ -16652,7 +16685,7 @@
       </c>
       <c r="BV66" s="63"/>
       <c r="BW66" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="BY66" s="38"/>
       <c r="BZ66" s="62" t="s">
@@ -16660,7 +16693,7 @@
       </c>
       <c r="CA66" s="63"/>
       <c r="CB66" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="CD66" s="38"/>
       <c r="CE66" s="62" t="s">
@@ -16668,28 +16701,28 @@
       </c>
       <c r="CF66" s="63"/>
       <c r="CG66" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="CS66" s="38"/>
       <c r="CT66" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CU66" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="CW66" s="38"/>
       <c r="CX66" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CY66" s="14" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="CZ66" s="38"/>
       <c r="DA66" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DB66" s="14" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="DD66" s="51"/>
       <c r="DE66" s="30" t="s">
@@ -16703,21 +16736,21 @@
         <v>213</v>
       </c>
       <c r="DJ66" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="DL66" s="38"/>
       <c r="DM66" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN66" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="DP66" s="38"/>
       <c r="DQ66" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR66" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:122" ht="15.75" thickBot="1">
@@ -17008,7 +17041,7 @@
         <v>213</v>
       </c>
       <c r="DF70" s="14" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="DH70" s="38"/>
       <c r="DI70" s="30" t="s">
@@ -17198,7 +17231,7 @@
       </c>
       <c r="BV73" s="63"/>
       <c r="BW73" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="BY73" s="38"/>
       <c r="BZ73" s="62" t="s">
@@ -17206,7 +17239,7 @@
       </c>
       <c r="CA73" s="63"/>
       <c r="CB73" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="CD73" s="38"/>
       <c r="CE73" s="62" t="s">
@@ -17214,7 +17247,7 @@
       </c>
       <c r="CF73" s="63"/>
       <c r="CG73" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="CS73" s="38"/>
       <c r="CT73" s="30" t="s">
@@ -17235,7 +17268,7 @@
         <v>213</v>
       </c>
       <c r="DB73" s="14" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="DD73" s="51"/>
       <c r="DE73" s="30" t="s">
@@ -17249,21 +17282,21 @@
         <v>213</v>
       </c>
       <c r="DJ73" s="14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="DL73" s="38"/>
       <c r="DM73" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN73" s="14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="DP73" s="38"/>
       <c r="DQ73" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR73" s="14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:122" ht="15.75" thickBot="1">
@@ -17548,7 +17581,7 @@
         <v>213</v>
       </c>
       <c r="DF77" s="14" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="DH77" s="38"/>
       <c r="DI77" s="30" t="s">
@@ -17729,7 +17762,7 @@
       </c>
       <c r="BV80" s="63"/>
       <c r="BW80" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="BY80" s="38"/>
       <c r="BZ80" s="62" t="s">
@@ -17737,7 +17770,7 @@
       </c>
       <c r="CA80" s="63"/>
       <c r="CB80" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="CD80" s="38"/>
       <c r="CE80" s="62" t="s">
@@ -17745,28 +17778,28 @@
       </c>
       <c r="CF80" s="63"/>
       <c r="CG80" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="CS80" s="38"/>
       <c r="CT80" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CU80" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="CW80" s="38"/>
       <c r="CX80" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CY80" s="14" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="CZ80" s="38"/>
       <c r="DA80" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DB80" s="14" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="DD80" s="51"/>
       <c r="DE80" s="30" t="s">
@@ -17780,21 +17813,21 @@
         <v>213</v>
       </c>
       <c r="DJ80" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="DL80" s="38"/>
       <c r="DM80" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN80" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="DP80" s="38"/>
       <c r="DQ80" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR80" s="14" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="72:122" ht="15.75" thickBot="1">
@@ -18291,7 +18324,7 @@
         <v>213</v>
       </c>
       <c r="DB87" s="14" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="DD87" s="51"/>
       <c r="DE87" s="30" t="s">
@@ -18305,21 +18338,21 @@
         <v>213</v>
       </c>
       <c r="DJ87" s="14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="DL87" s="38"/>
       <c r="DM87" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN87" s="14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="DP87" s="38"/>
       <c r="DQ87" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR87" s="14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="72:122" ht="15.75" thickBot="1">
@@ -18779,7 +18812,7 @@
       </c>
       <c r="BV94" s="63"/>
       <c r="BW94" s="14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="BY94" s="38"/>
       <c r="BZ94" s="62" t="s">
@@ -18787,7 +18820,7 @@
       </c>
       <c r="CA94" s="63"/>
       <c r="CB94" s="14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="CD94" s="38"/>
       <c r="CE94" s="62" t="s">
@@ -18795,28 +18828,28 @@
       </c>
       <c r="CF94" s="63"/>
       <c r="CG94" s="14" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="CS94" s="38"/>
       <c r="CT94" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CU94" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="CW94" s="38"/>
       <c r="CX94" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CY94" s="14" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="CZ94" s="38"/>
       <c r="DA94" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DB94" s="14" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="DD94" s="51"/>
       <c r="DE94" s="30" t="s">
@@ -18830,21 +18863,21 @@
         <v>213</v>
       </c>
       <c r="DJ94" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="DL94" s="38"/>
       <c r="DM94" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN94" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="DP94" s="38"/>
       <c r="DQ94" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR94" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="72:122" ht="15.75" thickBot="1">
@@ -19123,7 +19156,7 @@
         <v>213</v>
       </c>
       <c r="DF98" s="14" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="DH98" s="38"/>
       <c r="DI98" s="30" t="s">
@@ -19304,7 +19337,7 @@
       </c>
       <c r="BV101" s="63"/>
       <c r="BW101" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="BY101" s="38"/>
       <c r="BZ101" s="62" t="s">
@@ -19312,7 +19345,7 @@
       </c>
       <c r="CA101" s="63"/>
       <c r="CB101" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="CD101" s="38"/>
       <c r="CE101" s="62" t="s">
@@ -19320,7 +19353,7 @@
       </c>
       <c r="CF101" s="63"/>
       <c r="CG101" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="CS101" s="38"/>
       <c r="CT101" s="30" t="s">
@@ -19341,7 +19374,7 @@
         <v>213</v>
       </c>
       <c r="DB101" s="14" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="DD101" s="51"/>
       <c r="DE101" s="30" t="s">
@@ -19355,21 +19388,21 @@
         <v>213</v>
       </c>
       <c r="DJ101" s="14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="DL101" s="38"/>
       <c r="DM101" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN101" s="14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="DP101" s="38"/>
       <c r="DQ101" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR101" s="14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="72:122" ht="15.75" thickBot="1">
@@ -19648,7 +19681,7 @@
         <v>213</v>
       </c>
       <c r="DF105" s="14" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="DH105" s="38"/>
       <c r="DI105" s="30" t="s">
@@ -19829,7 +19862,7 @@
       </c>
       <c r="BV108" s="63"/>
       <c r="BW108" s="14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="BY108" s="38"/>
       <c r="BZ108" s="62" t="s">
@@ -19837,7 +19870,7 @@
       </c>
       <c r="CA108" s="63"/>
       <c r="CB108" s="14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="CD108" s="38"/>
       <c r="CE108" s="62" t="s">
@@ -19845,28 +19878,28 @@
       </c>
       <c r="CF108" s="63"/>
       <c r="CG108" s="14" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="CS108" s="38"/>
       <c r="CT108" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CU108" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="CW108" s="38"/>
       <c r="CX108" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CY108" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="CZ108" s="38"/>
       <c r="DA108" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DB108" s="14" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="DD108" s="51"/>
       <c r="DE108" s="30" t="s">
@@ -19880,21 +19913,21 @@
         <v>213</v>
       </c>
       <c r="DJ108" s="14" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="DL108" s="38"/>
       <c r="DM108" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN108" s="14" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="DP108" s="38"/>
       <c r="DQ108" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR108" s="14" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="72:122" ht="15.75" thickBot="1">
@@ -20173,7 +20206,7 @@
         <v>213</v>
       </c>
       <c r="DF112" s="14" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="DH112" s="38"/>
       <c r="DI112" s="30" t="s">
@@ -20391,7 +20424,7 @@
         <v>213</v>
       </c>
       <c r="DB115" s="14" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="DD115" s="51"/>
       <c r="DE115" s="30" t="s">
@@ -20405,21 +20438,21 @@
         <v>213</v>
       </c>
       <c r="DJ115" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="DL115" s="38"/>
       <c r="DM115" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN115" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="DP115" s="38"/>
       <c r="DQ115" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR115" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="72:122" ht="15.75" thickBot="1">
@@ -20698,7 +20731,7 @@
         <v>213</v>
       </c>
       <c r="DF119" s="14" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="DH119" s="38"/>
       <c r="DI119" s="30" t="s">
@@ -20879,7 +20912,7 @@
       </c>
       <c r="BV122" s="63"/>
       <c r="BW122" s="14" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="BY122" s="38"/>
       <c r="BZ122" s="62" t="s">
@@ -20887,7 +20920,7 @@
       </c>
       <c r="CA122" s="63"/>
       <c r="CB122" s="14" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="CD122" s="38"/>
       <c r="CE122" s="62" t="s">
@@ -20895,28 +20928,28 @@
       </c>
       <c r="CF122" s="63"/>
       <c r="CG122" s="14" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="CS122" s="38"/>
       <c r="CT122" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CU122" s="14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="CW122" s="38"/>
       <c r="CX122" s="30" t="s">
         <v>213</v>
       </c>
       <c r="CY122" s="14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="CZ122" s="38"/>
       <c r="DA122" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DB122" s="14" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="DD122" s="51"/>
       <c r="DE122" s="30" t="s">
@@ -20930,21 +20963,21 @@
         <v>213</v>
       </c>
       <c r="DJ122" s="14" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="DL122" s="38"/>
       <c r="DM122" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN122" s="14" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="DP122" s="38"/>
       <c r="DQ122" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR122" s="14" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="72:122" ht="15.75" thickBot="1">
@@ -21223,7 +21256,7 @@
         <v>213</v>
       </c>
       <c r="DF126" s="14" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="DH126" s="70"/>
       <c r="DI126" s="30" t="s">
@@ -21404,7 +21437,7 @@
       </c>
       <c r="BV129" s="63"/>
       <c r="BW129" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="BY129" s="55"/>
       <c r="BZ129" s="62" t="s">
@@ -21412,7 +21445,7 @@
       </c>
       <c r="CA129" s="63"/>
       <c r="CB129" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="CD129" s="70"/>
       <c r="CE129" s="62" t="s">
@@ -21420,7 +21453,7 @@
       </c>
       <c r="CF129" s="63"/>
       <c r="CG129" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="CS129" s="70"/>
       <c r="CT129" s="30" t="s">
@@ -21441,7 +21474,7 @@
         <v>213</v>
       </c>
       <c r="DB129" s="14" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="DD129" s="51"/>
       <c r="DE129" s="30" t="s">
@@ -21455,21 +21488,21 @@
         <v>213</v>
       </c>
       <c r="DJ129" s="14" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="DL129" s="70"/>
       <c r="DM129" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DN129" s="14" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="DP129" s="70"/>
       <c r="DQ129" s="30" t="s">
         <v>213</v>
       </c>
       <c r="DR129" s="14" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="72:123" ht="15.75" thickBot="1">
@@ -21572,7 +21605,7 @@
       </c>
       <c r="BV131" s="63"/>
       <c r="BW131" s="14" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="BY131" s="38"/>
       <c r="BZ131" s="62" t="s">
@@ -21580,7 +21613,7 @@
       </c>
       <c r="CA131" s="63"/>
       <c r="CB131" s="14" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="CD131" s="38"/>
       <c r="CE131" s="62" t="s">
@@ -21588,28 +21621,28 @@
       </c>
       <c r="CF131" s="63"/>
       <c r="CG131" s="14" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="CS131" s="38"/>
       <c r="CT131" s="62" t="s">
         <v>247</v>
       </c>
       <c r="CU131" s="14" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="CW131" s="38"/>
       <c r="CX131" s="62" t="s">
         <v>247</v>
       </c>
       <c r="CY131" s="14" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="CZ131" s="38"/>
       <c r="DA131" s="62" t="s">
         <v>247</v>
       </c>
       <c r="DB131" s="14" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="DD131" s="51"/>
       <c r="DE131" s="30" t="s">
@@ -21623,21 +21656,21 @@
         <v>247</v>
       </c>
       <c r="DJ131" s="14" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="DL131" s="38"/>
       <c r="DM131" s="62" t="s">
         <v>247</v>
       </c>
       <c r="DN131" s="14" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="DP131" s="38"/>
       <c r="DQ131" s="62" t="s">
         <v>247</v>
       </c>
       <c r="DR131" s="14" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="72:123" ht="15.75" thickBot="1">
@@ -21778,7 +21811,7 @@
         <v>213</v>
       </c>
       <c r="DF133" s="14" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="DH133" s="61" t="s">
         <v>270</v>
@@ -21787,7 +21820,7 @@
         <v>238</v>
       </c>
       <c r="DJ133" s="14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="DL133" s="61" t="s">
         <v>270</v>
@@ -21796,7 +21829,7 @@
         <v>238</v>
       </c>
       <c r="DN133" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="DP133" s="61" t="s">
         <v>270</v>
@@ -21805,7 +21838,7 @@
         <v>238</v>
       </c>
       <c r="DR133" s="14" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="72:123" ht="15.75" thickBot="1">
@@ -21815,7 +21848,7 @@
       </c>
       <c r="BV134" s="63"/>
       <c r="BW134" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BY134" s="96"/>
       <c r="BZ134" s="62" t="s">
@@ -21823,7 +21856,7 @@
       </c>
       <c r="CA134" s="63"/>
       <c r="CB134" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CD134" s="96"/>
       <c r="CE134" s="62" t="s">
@@ -21831,28 +21864,28 @@
       </c>
       <c r="CF134" s="63"/>
       <c r="CG134" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CS134" s="96"/>
       <c r="CT134" s="62" t="s">
         <v>271</v>
       </c>
       <c r="CU134" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CW134" s="96"/>
       <c r="CX134" s="62" t="s">
         <v>271</v>
       </c>
       <c r="CY134" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CZ134" s="96"/>
       <c r="DA134" s="62" t="s">
         <v>271</v>
       </c>
       <c r="DB134" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="DD134" s="32" t="s">
         <v>256</v>
@@ -21868,54 +21901,54 @@
         <v>271</v>
       </c>
       <c r="DJ134" s="14" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="DL134" s="96"/>
       <c r="DM134" s="62" t="s">
         <v>271</v>
       </c>
       <c r="DN134" s="14" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="DP134" s="96"/>
       <c r="DQ134" s="62" t="s">
         <v>271</v>
       </c>
       <c r="DR134" s="14" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BU135" s="6"/>
       <c r="BV135" s="6"/>
       <c r="BW135" s="7"/>
       <c r="BY135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="BZ135" s="6"/>
       <c r="CA135" s="6"/>
       <c r="CB135" s="7"/>
       <c r="CD135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CE135" s="6"/>
       <c r="CF135" s="6"/>
       <c r="CG135" s="7"/>
       <c r="CS135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CT135" s="6"/>
       <c r="CU135" s="7"/>
       <c r="CW135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CX135" s="6"/>
       <c r="CY135" s="7"/>
       <c r="CZ135" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DA135" s="101"/>
       <c r="DB135" s="102"/>
@@ -21924,67 +21957,67 @@
         <v>247</v>
       </c>
       <c r="DF135" s="56" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="DH135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DI135" s="6"/>
       <c r="DJ135" s="7"/>
       <c r="DL135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DM135" s="6"/>
       <c r="DN135" s="7"/>
       <c r="DP135" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DQ135" s="6"/>
       <c r="DR135" s="7"/>
     </row>
     <row r="136" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="BU136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BV136" s="107"/>
       <c r="BW136" s="108"/>
       <c r="BY136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="BZ136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="CA136" s="107"/>
       <c r="CB136" s="108"/>
       <c r="CD136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="CE136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="CF136" s="107"/>
       <c r="CG136" s="108"/>
       <c r="CS136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="CT136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="CU136" s="107"/>
       <c r="CV136" s="108"/>
       <c r="CW136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="CX136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="CY136" s="107"/>
       <c r="CZ136" s="108"/>
       <c r="DA136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="DB136" s="107"/>
       <c r="DC136" s="108"/>
@@ -21996,74 +22029,74 @@
         <v>44861</v>
       </c>
       <c r="DH136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="DI136" s="106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="DJ136" s="107"/>
       <c r="DK136" s="108"/>
       <c r="DL136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="DM136" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="DN136" s="107"/>
       <c r="DO136" s="108"/>
       <c r="DP136" s="85" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="DQ136" s="106" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="DR136" s="107"/>
       <c r="DS136" s="108"/>
     </row>
     <row r="137" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="BU137" s="104" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="BV137" s="104"/>
       <c r="BW137" s="105"/>
       <c r="BY137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="BZ137" s="103" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="CA137" s="104"/>
       <c r="CB137" s="105"/>
       <c r="CD137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="CE137" s="103" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="CF137" s="104"/>
       <c r="CG137" s="105"/>
       <c r="CS137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="CT137" s="103" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="CU137" s="105"/>
       <c r="CW137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="CX137" s="103" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="CY137" s="105"/>
       <c r="CZ137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="DA137" s="103" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="DB137" s="105"/>
       <c r="DD137" s="57" t="s">
@@ -22076,30 +22109,30 @@
         <v>273</v>
       </c>
       <c r="DH137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="DI137" s="103" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="DJ137" s="105"/>
       <c r="DL137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="DM137" s="103" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="DN137" s="105"/>
       <c r="DP137" s="85" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="DQ137" s="103" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="DR137" s="105"/>
     </row>
     <row r="138" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="BU138" s="111">
         <v>2023.1</v>
@@ -22107,7 +22140,7 @@
       <c r="BV138" s="112"/>
       <c r="BW138" s="113"/>
       <c r="BY138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="BZ138" s="111">
         <v>2023.1</v>
@@ -22115,7 +22148,7 @@
       <c r="CA138" s="112"/>
       <c r="CB138" s="113"/>
       <c r="CD138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="CE138" s="111">
         <v>2023.1</v>
@@ -22123,21 +22156,21 @@
       <c r="CF138" s="112"/>
       <c r="CG138" s="113"/>
       <c r="CS138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="CT138" s="106">
         <v>2023.1</v>
       </c>
       <c r="CU138" s="108"/>
       <c r="CW138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="CX138" s="106">
         <v>2023.1</v>
       </c>
       <c r="CY138" s="108"/>
       <c r="CZ138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DA138" s="106">
         <v>2023.1</v>
@@ -22148,24 +22181,24 @@
         <v>271</v>
       </c>
       <c r="DF138" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="DH138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DI138" s="106">
         <v>2023.1</v>
       </c>
       <c r="DJ138" s="108"/>
       <c r="DL138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DM138" s="106">
         <v>2023.1</v>
       </c>
       <c r="DN138" s="108"/>
       <c r="DP138" s="85" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="DQ138" s="106">
         <v>2023.1</v>
@@ -22195,7 +22228,7 @@
       <c r="DA139" s="103"/>
       <c r="DB139" s="105"/>
       <c r="DD139" s="100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="DE139" s="101"/>
       <c r="DF139" s="102"/>
@@ -22211,157 +22244,157 @@
     </row>
     <row r="140" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="BU140" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BV140" s="107"/>
       <c r="BW140" s="108"/>
       <c r="BY140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="BZ140" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CA140" s="107"/>
       <c r="CB140" s="108"/>
       <c r="CD140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CE140" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CF140" s="107"/>
       <c r="CG140" s="108"/>
       <c r="CS140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CT140" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CU140" s="105"/>
       <c r="CW140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="CX140" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CY140" s="105"/>
       <c r="CZ140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="DA140" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DB140" s="105"/>
       <c r="DD140" s="85" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="DE140" s="124" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="DF140" s="125"/>
       <c r="DH140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="DI140" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DJ140" s="105"/>
       <c r="DL140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="DM140" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DN140" s="105"/>
       <c r="DP140" s="85" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="DQ140" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DR140" s="105"/>
     </row>
     <row r="141" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="BU141" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="BV141" s="107"/>
       <c r="BW141" s="108"/>
       <c r="BY141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="BZ141" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CA141" s="107"/>
       <c r="CB141" s="108"/>
       <c r="CD141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="CE141" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CF141" s="107"/>
       <c r="CG141" s="108"/>
       <c r="CS141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="CT141" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CU141" s="105"/>
       <c r="CW141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="CX141" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="CY141" s="105"/>
       <c r="CZ141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="DA141" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DB141" s="105"/>
       <c r="DD141" s="85" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="DE141" s="106" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="DF141" s="108"/>
       <c r="DH141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="DI141" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DJ141" s="105"/>
       <c r="DL141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="DM141" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DN141" s="105"/>
       <c r="DP141" s="85" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="DQ141" s="103" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DR141" s="105"/>
     </row>
     <row r="142" spans="72:123" ht="15.75" thickBot="1">
       <c r="BT142" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="BU142" s="103">
         <v>32</v>
@@ -22369,7 +22402,7 @@
       <c r="BV142" s="104"/>
       <c r="BW142" s="105"/>
       <c r="BY142" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="BZ142" s="103">
         <v>32</v>
@@ -22377,7 +22410,7 @@
       <c r="CA142" s="104"/>
       <c r="CB142" s="105"/>
       <c r="CD142" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="CE142" s="103">
         <v>52</v>
@@ -22385,28 +22418,28 @@
       <c r="CF142" s="104"/>
       <c r="CG142" s="105"/>
       <c r="CS142" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="CT142" s="103">
         <v>40</v>
       </c>
       <c r="CU142" s="105"/>
       <c r="CW142" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="CX142" s="103">
         <v>80</v>
       </c>
       <c r="CY142" s="105"/>
       <c r="CZ142" s="85" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="DA142" s="103">
         <v>120</v>
       </c>
       <c r="DB142" s="105"/>
       <c r="DD142" s="85" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="DE142" s="126">
         <v>2023.1</v>
@@ -22420,25 +22453,25 @@
     </row>
     <row r="144" spans="72:123" ht="15.75" thickBot="1">
       <c r="DD144" s="85" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="DE144" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DF144" s="108"/>
     </row>
     <row r="145" spans="108:110" ht="15.75" thickBot="1">
       <c r="DD145" s="85" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="DE145" s="106" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="DF145" s="108"/>
     </row>
     <row r="146" spans="108:110" ht="15.75" thickBot="1">
       <c r="DD146" s="85" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="DE146" s="103">
         <v>8</v>
@@ -23501,34 +23534,34 @@
     <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" display="https://ark.intel.com/search?q=i7-8700T" xr:uid="{61527984-6655-408C-A66E-E07965CEE799}"/>
-    <hyperlink ref="I4" r:id="rId2" display="https://ark.intel.com/search?q=i5-8500" xr:uid="{ECE47040-61F8-49A2-B5F9-A5FA192543BC}"/>
-    <hyperlink ref="BM4" r:id="rId3" display="https://ark.intel.com/search?q=E-2124G" xr:uid="{D7A68934-AF7D-41B7-8CEA-3676BF17B0AD}"/>
-    <hyperlink ref="BW4" r:id="rId4" display="https://ark.intel.com/search?q=Silver+4216R" xr:uid="{0E3120ED-62F2-4405-9ED0-D9585167AB25}"/>
-    <hyperlink ref="CB4" r:id="rId5" display="https://ark.intel.com/search?q=Gold+5218T" xr:uid="{0B92E5AE-C764-4B8D-856B-8499883C1407}"/>
-    <hyperlink ref="CG4" r:id="rId6" display="https://ark.intel.com/search?q=Platinum+8270" xr:uid="{1B637C34-F41A-4A7B-9D67-4826D5148760}"/>
-    <hyperlink ref="CQ4" r:id="rId7" xr:uid="{0A20648C-3F95-453B-8B9B-F3C2C6BF1ACE}"/>
-    <hyperlink ref="S4" r:id="rId8" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{B9953E7A-045D-4630-9261-EF2C85A3D9FD}"/>
-    <hyperlink ref="AC4" r:id="rId9" display="https://ark.intel.com/search?q=i9-10900TE" xr:uid="{509EA9ED-B624-434B-B359-9EB9303409BF}"/>
-    <hyperlink ref="BR4" r:id="rId10" display="https://ark.intel.com/search?q=W-1290P" xr:uid="{CCA8A994-998D-4728-9FF7-404BAF62BA3F}"/>
-    <hyperlink ref="X4" r:id="rId11" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{CDC455FD-B05B-451A-8EA6-1B05F294C9BF}"/>
-    <hyperlink ref="D4" r:id="rId12" display="https://ark.intel.com/search?q=i3-8100" xr:uid="{D0A4CA64-F916-4675-8037-ADB217279221}"/>
-    <hyperlink ref="AM4" r:id="rId13" xr:uid="{283CADDE-1EDD-41D8-BEA6-94ECEF43E011}"/>
-    <hyperlink ref="AH4" r:id="rId14" display="https://ark.intel.com/search?q=6305E" xr:uid="{D8467312-FA03-4C6D-BD3B-14DE6B599421}"/>
-    <hyperlink ref="AW4" r:id="rId15" xr:uid="{AF1620ED-FF0F-4B88-B7A4-15622A02C096}"/>
-    <hyperlink ref="CL4" r:id="rId16" display="https://ark.intel.com/search?q=i7-7800X" xr:uid="{3C5A10A3-594C-4095-B462-096C5C21A74B}"/>
-    <hyperlink ref="CU4" r:id="rId17" xr:uid="{A4EE6880-5923-4373-BF35-2F117D50537F}"/>
-    <hyperlink ref="DB4" r:id="rId18" display="Intel® Xeon® Gold 6448Y CPU @ 2.10GHz" xr:uid="{F84A2892-74BF-4327-8C16-6700D8229B29}"/>
-    <hyperlink ref="BH4" r:id="rId19" xr:uid="{A954E11B-BAFB-4538-97E6-F4397821D1E9}"/>
-    <hyperlink ref="BC4" r:id="rId20" xr:uid="{E1D4E13C-EBBC-4E08-9676-01C77934F469}"/>
-    <hyperlink ref="CY4" r:id="rId21" xr:uid="{663C6321-168E-4F5E-8E79-AB9DEDFAB9D6}"/>
-    <hyperlink ref="AR4" r:id="rId22" xr:uid="{4A0797D1-C97C-4E30-A715-BF5DC276844C}"/>
-    <hyperlink ref="DW4" r:id="rId23" display="11th Gen Core™ i7-11700K" xr:uid="{FF0F783D-8A67-40F7-99FA-8E6517C8FF84}"/>
-    <hyperlink ref="EB4" r:id="rId24" xr:uid="{8A438907-9B49-4750-8B00-E32D670AFDB2}"/>
-    <hyperlink ref="EG4" r:id="rId25" xr:uid="{F58ADD52-E6EE-4D11-AAFA-EEBD62F40D16}"/>
-    <hyperlink ref="EL4" r:id="rId26" xr:uid="{0D72E39C-3CEA-4E12-B8DC-08E2606976E1}"/>
-    <hyperlink ref="EQ4" r:id="rId27" xr:uid="{28B0269F-F3D2-4C9D-B122-B25698B4D88B}"/>
-    <hyperlink ref="DF4" r:id="rId28" xr:uid="{44BF5B20-57E4-4986-98B2-D88E36B50427}"/>
+    <hyperlink ref="N4" r:id="rId1" display="https://ark.intel.com/search?q=i7-8700T" xr:uid="{1EEE130F-F374-4F8F-932C-252E8DE8991A}"/>
+    <hyperlink ref="I4" r:id="rId2" display="https://ark.intel.com/search?q=i5-8500" xr:uid="{DB6266CD-CBF1-4C73-959A-7E86C3FB6855}"/>
+    <hyperlink ref="BM4" r:id="rId3" display="https://ark.intel.com/search?q=E-2124G" xr:uid="{208E9069-999E-4F53-BE17-DC24121255E7}"/>
+    <hyperlink ref="BW4" r:id="rId4" display="https://ark.intel.com/search?q=Silver+4216R" xr:uid="{3B6B8637-F8C0-4499-A32D-8569CE145E4D}"/>
+    <hyperlink ref="CB4" r:id="rId5" display="https://ark.intel.com/search?q=Gold+5218T" xr:uid="{6C62FB7E-343D-4B2F-91D2-AD04EB9C699C}"/>
+    <hyperlink ref="CG4" r:id="rId6" display="https://ark.intel.com/search?q=Platinum+8270" xr:uid="{92B35ABD-0D75-4C30-A1E9-E34B1A2B6529}"/>
+    <hyperlink ref="CQ4" r:id="rId7" xr:uid="{19A8DF5D-9BE7-486D-B9CE-BA14204F498F}"/>
+    <hyperlink ref="S4" r:id="rId8" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{294C7C73-D12F-484E-8596-0E9E2106D63C}"/>
+    <hyperlink ref="AC4" r:id="rId9" display="https://ark.intel.com/search?q=i9-10900TE" xr:uid="{6723ED85-4920-4B53-A2C4-2CE77EF04D39}"/>
+    <hyperlink ref="BR4" r:id="rId10" display="https://ark.intel.com/search?q=W-1290P" xr:uid="{241FEBC3-466E-4B13-B411-B94D5F049CB2}"/>
+    <hyperlink ref="X4" r:id="rId11" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{D8A37DB7-C070-4331-B635-7F991B60CF21}"/>
+    <hyperlink ref="D4" r:id="rId12" display="https://ark.intel.com/search?q=i3-8100" xr:uid="{7E8CD99A-9A75-4433-9928-23CBD3CB5FA1}"/>
+    <hyperlink ref="AM4" r:id="rId13" xr:uid="{ACED86A8-F7BA-4076-AF84-EF3BB405AF4E}"/>
+    <hyperlink ref="AH4" r:id="rId14" display="https://ark.intel.com/search?q=6305E" xr:uid="{A19431B5-2349-41B9-9879-DFEF17134660}"/>
+    <hyperlink ref="AW4" r:id="rId15" xr:uid="{434AF16A-D729-4590-8B3B-5926D989CE63}"/>
+    <hyperlink ref="CL4" r:id="rId16" display="https://ark.intel.com/search?q=i7-7800X" xr:uid="{999E5DFE-4BCC-452D-B784-7A14E73F9E94}"/>
+    <hyperlink ref="CU4" r:id="rId17" xr:uid="{40A348C5-F43B-4C52-81E9-F33561A80C7A}"/>
+    <hyperlink ref="DB4" r:id="rId18" display="Intel® Xeon® Gold 6448Y CPU @ 2.10GHz" xr:uid="{F5222AAB-EA97-47A8-ACF2-58CE982D4007}"/>
+    <hyperlink ref="BH4" r:id="rId19" xr:uid="{150A0D99-22A0-4156-BAF2-8EECB3963F8B}"/>
+    <hyperlink ref="BC4" r:id="rId20" xr:uid="{5A5EF4B9-D39E-4740-BE7C-406EBFF3270D}"/>
+    <hyperlink ref="CY4" r:id="rId21" xr:uid="{F3CACAC5-2A3C-4DDC-B47F-919D366157B0}"/>
+    <hyperlink ref="AR4" r:id="rId22" xr:uid="{FE4FFAD4-D421-423E-9FB5-5009BB1F02FC}"/>
+    <hyperlink ref="DW4" r:id="rId23" display="11th Gen Core™ i7-11700K" xr:uid="{B3FD0E4D-17B4-41EA-934F-CFAAA2EAD8A4}"/>
+    <hyperlink ref="EB4" r:id="rId24" xr:uid="{366D1D5F-31E8-421A-A804-7C185688E1A3}"/>
+    <hyperlink ref="EG4" r:id="rId25" xr:uid="{29CDF98E-E319-4DCB-B10F-1B7805563B20}"/>
+    <hyperlink ref="EL4" r:id="rId26" xr:uid="{7FA776FD-AB78-48D2-B99A-75891EC39CC6}"/>
+    <hyperlink ref="EQ4" r:id="rId27" xr:uid="{B8D164A8-1936-49DB-916F-296CBF1301C5}"/>
+    <hyperlink ref="DF4" r:id="rId28" xr:uid="{F64ADE64-C886-4360-A0CB-CE209534AD43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId29"/>
